--- a/graphs/cdc_rollingHash_w.xlsx
+++ b/graphs/cdc_rollingHash_w.xlsx
@@ -2413,10 +2413,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>emacs!$B$5:$B$23</c:f>
+              <c:f>emacs!$B$5:$B$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>104.133164110834</c:v>
                 </c:pt>
@@ -2473,16 +2473,76 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>1030.08967622164</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1106.17604325054</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1105.3543572947899</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1209.9822590183301</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1261.503602944</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1394.5593184238501</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1359.01365768608</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1478.1145024381401</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1591.04199066874</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1468.3028345891601</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1499.5776647886</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1753.84549448194</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1764.7178049700799</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1746.82674350354</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1728.4730728616601</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1737.0943436272901</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1963.49067354405</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2115.35797363659</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1898.25350805984</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1894.9571660106501</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2180.5954839139399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>emacs!$C$5:$C$23</c:f>
+              <c:f>emacs!$C$5:$C$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0.60398832768024702</c:v>
                 </c:pt>
@@ -2539,6 +2599,66 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.38740277139701301</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.38215593965045302</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.38601762272247397</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.35917605250039097</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.36059510747380302</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.353069955720206</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.35188146357913602</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.35566039695417501</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.33522018322841701</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.35179483451282401</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.34941171044142899</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.32602320657061301</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.32878412623162301</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.33710231882428798</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32954109199053799</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.326088483832499</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.31663183379926402</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.30853656748514202</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.32578650394901398</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.32044497893532897</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.30849377223764402</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8861,7 +8981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="V25" sqref="V25"/>
     </sheetView>
   </sheetViews>
@@ -10703,10 +10823,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="L4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11611,6 +11731,226 @@
       </c>
       <c r="N23">
         <v>0.31920437495112602</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1050</v>
+      </c>
+      <c r="B24">
+        <v>1106.17604325054</v>
+      </c>
+      <c r="C24">
+        <v>0.38215593965045302</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1100</v>
+      </c>
+      <c r="B25">
+        <v>1105.3543572947899</v>
+      </c>
+      <c r="C25">
+        <v>0.38601762272247397</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1150</v>
+      </c>
+      <c r="B26">
+        <v>1209.9822590183301</v>
+      </c>
+      <c r="C26">
+        <v>0.35917605250039097</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1200</v>
+      </c>
+      <c r="B27">
+        <v>1261.503602944</v>
+      </c>
+      <c r="C27">
+        <v>0.36059510747380302</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1250</v>
+      </c>
+      <c r="B28">
+        <v>1394.5593184238501</v>
+      </c>
+      <c r="C28">
+        <v>0.353069955720206</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1300</v>
+      </c>
+      <c r="B29">
+        <v>1359.01365768608</v>
+      </c>
+      <c r="C29">
+        <v>0.35188146357913602</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1350</v>
+      </c>
+      <c r="B30">
+        <v>1478.1145024381401</v>
+      </c>
+      <c r="C30">
+        <v>0.35566039695417501</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1400</v>
+      </c>
+      <c r="B31">
+        <v>1591.04199066874</v>
+      </c>
+      <c r="C31">
+        <v>0.33522018322841701</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1450</v>
+      </c>
+      <c r="B32">
+        <v>1468.3028345891601</v>
+      </c>
+      <c r="C32">
+        <v>0.35179483451282401</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1500</v>
+      </c>
+      <c r="B33">
+        <v>1499.5776647886</v>
+      </c>
+      <c r="C33">
+        <v>0.34941171044142899</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1550</v>
+      </c>
+      <c r="B34">
+        <v>1753.84549448194</v>
+      </c>
+      <c r="C34">
+        <v>0.32602320657061301</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1600</v>
+      </c>
+      <c r="B35">
+        <v>1764.7178049700799</v>
+      </c>
+      <c r="C35">
+        <v>0.32878412623162301</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1650</v>
+      </c>
+      <c r="B36">
+        <v>1746.82674350354</v>
+      </c>
+      <c r="C36">
+        <v>0.33710231882428798</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1700</v>
+      </c>
+      <c r="B37">
+        <v>1728.4730728616601</v>
+      </c>
+      <c r="C37">
+        <v>0.32954109199053799</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1750</v>
+      </c>
+      <c r="B38">
+        <v>1737.0943436272901</v>
+      </c>
+      <c r="C38">
+        <v>0.326088483832499</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1800</v>
+      </c>
+      <c r="B39">
+        <v>1963.49067354405</v>
+      </c>
+      <c r="C39">
+        <v>0.31663183379926402</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1850</v>
+      </c>
+      <c r="B40">
+        <v>2115.35797363659</v>
+      </c>
+      <c r="C40">
+        <v>0.30853656748514202</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1900</v>
+      </c>
+      <c r="B41">
+        <v>1898.25350805984</v>
+      </c>
+      <c r="C41">
+        <v>0.32578650394901398</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1950</v>
+      </c>
+      <c r="B42">
+        <v>1894.9571660106501</v>
+      </c>
+      <c r="C42">
+        <v>0.32044497893532897</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2000</v>
+      </c>
+      <c r="B43">
+        <v>2180.5954839139399</v>
+      </c>
+      <c r="C43">
+        <v>0.30849377223764402</v>
       </c>
     </row>
   </sheetData>

--- a/graphs/cdc_rollingHash_w.xlsx
+++ b/graphs/cdc_rollingHash_w.xlsx
@@ -10823,10 +10823,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N43"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:A43"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35:F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11743,6 +11743,15 @@
       <c r="C24">
         <v>0.38215593965045302</v>
       </c>
+      <c r="D24">
+        <v>1500</v>
+      </c>
+      <c r="E24">
+        <v>33.945079887476297</v>
+      </c>
+      <c r="F24">
+        <v>0.49619782095519199</v>
+      </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -11754,6 +11763,15 @@
       <c r="C25">
         <v>0.38601762272247397</v>
       </c>
+      <c r="D25">
+        <v>2000</v>
+      </c>
+      <c r="E25">
+        <v>34.338159325934299</v>
+      </c>
+      <c r="F25">
+        <v>0.47042671229863903</v>
+      </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -11765,6 +11783,15 @@
       <c r="C26">
         <v>0.35917605250039097</v>
       </c>
+      <c r="D26">
+        <v>2500</v>
+      </c>
+      <c r="E26">
+        <v>34.580050913162403</v>
+      </c>
+      <c r="F26">
+        <v>0.45006365831248002</v>
+      </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -11776,6 +11803,15 @@
       <c r="C27">
         <v>0.36059510747380302</v>
       </c>
+      <c r="D27">
+        <v>3000</v>
+      </c>
+      <c r="E27">
+        <v>34.743361704837298</v>
+      </c>
+      <c r="F27">
+        <v>0.43355489521426299</v>
+      </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -11787,6 +11823,15 @@
       <c r="C28">
         <v>0.353069955720206</v>
       </c>
+      <c r="D28">
+        <v>3500</v>
+      </c>
+      <c r="E28">
+        <v>34.861235642771497</v>
+      </c>
+      <c r="F28">
+        <v>0.41905329337073799</v>
+      </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -11798,6 +11843,15 @@
       <c r="C29">
         <v>0.35188146357913602</v>
       </c>
+      <c r="D29">
+        <v>4000</v>
+      </c>
+      <c r="E29">
+        <v>34.949402426591</v>
+      </c>
+      <c r="F29">
+        <v>0.40605621481075999</v>
+      </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -11809,6 +11863,15 @@
       <c r="C30">
         <v>0.35566039695417501</v>
       </c>
+      <c r="D30">
+        <v>4500</v>
+      </c>
+      <c r="E30">
+        <v>35.020474880295701</v>
+      </c>
+      <c r="F30">
+        <v>0.394495541474429</v>
+      </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -11820,6 +11883,15 @@
       <c r="C31">
         <v>0.33522018322841701</v>
       </c>
+      <c r="D31">
+        <v>5000</v>
+      </c>
+      <c r="E31">
+        <v>35.077586410109603</v>
+      </c>
+      <c r="F31">
+        <v>0.38430645429308702</v>
+      </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -11831,8 +11903,17 @@
       <c r="C32">
         <v>0.35179483451282401</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>5500</v>
+      </c>
+      <c r="E32">
+        <v>35.124103316788997</v>
+      </c>
+      <c r="F32">
+        <v>0.375891277467156</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1500</v>
       </c>
@@ -11842,8 +11923,17 @@
       <c r="C33">
         <v>0.34941171044142899</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>6000</v>
+      </c>
+      <c r="E33">
+        <v>35.170894901837698</v>
+      </c>
+      <c r="F33">
+        <v>0.36814802573701899</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1550</v>
       </c>
@@ -11853,8 +11943,17 @@
       <c r="C34">
         <v>0.32602320657061301</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>6500</v>
+      </c>
+      <c r="E34">
+        <v>35.217697664186304</v>
+      </c>
+      <c r="F34">
+        <v>0.36162705026196401</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1600</v>
       </c>
@@ -11864,8 +11963,17 @@
       <c r="C35">
         <v>0.32878412623162301</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>7000</v>
+      </c>
+      <c r="E35">
+        <v>35.251296728808398</v>
+      </c>
+      <c r="F35">
+        <v>0.35479105166953301</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1650</v>
       </c>
@@ -11875,8 +11983,17 @@
       <c r="C36">
         <v>0.33710231882428798</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>7500</v>
+      </c>
+      <c r="E36">
+        <v>35.275378778491202</v>
+      </c>
+      <c r="F36">
+        <v>0.34871473744917098</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1700</v>
       </c>
@@ -11886,8 +12003,17 @@
       <c r="C37">
         <v>0.32954109199053799</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>8000</v>
+      </c>
+      <c r="E37">
+        <v>35.294546356241398</v>
+      </c>
+      <c r="F37">
+        <v>0.34331221164372799</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1750</v>
       </c>
@@ -11897,8 +12023,17 @@
       <c r="C38">
         <v>0.326088483832499</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>8500</v>
+      </c>
+      <c r="E38">
+        <v>35.314077615443601</v>
+      </c>
+      <c r="F38">
+        <v>0.33759173028424999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1800</v>
       </c>
@@ -11908,8 +12043,17 @@
       <c r="C39">
         <v>0.31663183379926402</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>9000</v>
+      </c>
+      <c r="E39">
+        <v>35.332181398445996</v>
+      </c>
+      <c r="F39">
+        <v>0.33260377771152599</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1850</v>
       </c>
@@ -11919,8 +12063,17 @@
       <c r="C40">
         <v>0.30853656748514202</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>9500</v>
+      </c>
+      <c r="E40">
+        <v>35.348280758204702</v>
+      </c>
+      <c r="F40">
+        <v>0.32820411469737198</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1900</v>
       </c>
@@ -11930,8 +12083,17 @@
       <c r="C41">
         <v>0.32578650394901398</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>10000</v>
+      </c>
+      <c r="E41">
+        <v>35.3624847828223</v>
+      </c>
+      <c r="F41">
+        <v>0.32421600084063101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1950</v>
       </c>
@@ -11941,8 +12103,17 @@
       <c r="C42">
         <v>0.32044497893532897</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>10500</v>
+      </c>
+      <c r="E42">
+        <v>35.374941784259697</v>
+      </c>
+      <c r="F42">
+        <v>0.31987807172740002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2000</v>
       </c>
@@ -11951,6 +12122,103 @@
       </c>
       <c r="C43">
         <v>0.30849377223764402</v>
+      </c>
+      <c r="D43">
+        <v>11000</v>
+      </c>
+      <c r="E43">
+        <v>35.386145291976099</v>
+      </c>
+      <c r="F43">
+        <v>0.316745618450891</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>11500</v>
+      </c>
+      <c r="E44">
+        <v>35.396513899746203</v>
+      </c>
+      <c r="F44">
+        <v>0.31318322719541702</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>12000</v>
+      </c>
+      <c r="E45">
+        <v>35.4064290612082</v>
+      </c>
+      <c r="F45">
+        <v>0.30984648083163902</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>12500</v>
+      </c>
+      <c r="E46">
+        <v>35.414625703158798</v>
+      </c>
+      <c r="F46">
+        <v>0.30804214644588601</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>13000</v>
+      </c>
+      <c r="E47">
+        <v>35.422557842355403</v>
+      </c>
+      <c r="F47">
+        <v>0.30535801996989298</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>13500</v>
+      </c>
+      <c r="E48">
+        <v>35.429036475243002</v>
+      </c>
+      <c r="F48">
+        <v>0.30168462376837601</v>
+      </c>
+    </row>
+    <row r="49" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>14000</v>
+      </c>
+      <c r="E49">
+        <v>35.436207902476298</v>
+      </c>
+      <c r="F49">
+        <v>0.29859246094971797</v>
+      </c>
+    </row>
+    <row r="50" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>14500</v>
+      </c>
+      <c r="E50">
+        <v>35.442806645266401</v>
+      </c>
+      <c r="F50">
+        <v>0.29586734145292398</v>
+      </c>
+    </row>
+    <row r="51" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>15000</v>
+      </c>
+      <c r="E51">
+        <v>35.448563369300899</v>
+      </c>
+      <c r="F51">
+        <v>0.29309634154089698</v>
       </c>
     </row>
   </sheetData>

--- a/graphs/cdc_rollingHash_w.xlsx
+++ b/graphs/cdc_rollingHash_w.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shah\Documents\thesis_git\graphs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\therealshah\Desktop\Thesis\graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8193"/>
   </bookViews>
   <sheets>
     <sheet name="GCC" sheetId="1" r:id="rId1"/>
@@ -242,9 +242,10 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
     <mruColors>
+      <color rgb="FFB9297B"/>
       <color rgb="FFBC2A7D"/>
+      <color rgb="FFDC62A8"/>
       <color rgb="FF83BC5C"/>
-      <color rgb="FFDC62A8"/>
     </mruColors>
   </colors>
   <extLst>
@@ -408,10 +409,10 @@
                   <c:v>380.88006902502099</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>461.19951679780598</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>453.02759649150897</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>461.19951679780598</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>538.22864872073296</c:v>
@@ -426,82 +427,82 @@
                   <c:v>684.46942533191202</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>802.13963260554704</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>858.05017311547101</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>727.67958789439797</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>802.13963260554704</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>848.56610800744795</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>858.05017311547101</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1034.04435985652</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>1173.2624584717601</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>1036.05412739741</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>1058.2126001947699</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>1189.4143897612901</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>1173.2624584717601</c:v>
-                </c:pt>
                 <c:pt idx="21">
+                  <c:v>1323.47215065348</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1519.8321588035899</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>1191.7725470344999</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
+                  <c:v>1535.1097587480899</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>1385.1814081192299</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="26">
+                  <c:v>1610.45203214957</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>1518.0355703616101</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>1323.47215065348</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1535.1097587480899</c:v>
-                </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="28">
+                  <c:v>1778.31938062566</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>1590.5956536425999</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>1519.8321588035899</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1610.45203214957</c:v>
-                </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>1793.67405244111</c:v>
                 </c:pt>
-                <c:pt idx="30">
-                  <c:v>1723.74374618669</c:v>
-                </c:pt>
                 <c:pt idx="31">
-                  <c:v>1778.31938062566</c:v>
+                  <c:v>1937.3352533772199</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>1652.2697233756301</c:v>
                 </c:pt>
                 <c:pt idx="33">
+                  <c:v>1723.74374618669</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>2002.70504005103</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
+                  <c:v>2027.2789896670399</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2134.4938047748501</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>2125.6609735911502</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2134.4938047748501</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2027.2789896670399</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1937.3352533772199</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>2361.4309595453001</c:v>
@@ -534,10 +535,10 @@
                   <c:v>0.86953323214932898</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.85858022890993102</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.84794659948124296</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.85858022890993102</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.84384022319001395</c:v>
@@ -552,82 +553,82 @@
                   <c:v>0.83476771333590005</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>0.818686429639362</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.80996582208227597</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0.80929819171348305</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.818686429639362</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>0.79586067047616804</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.80996582208227597</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.79547577955101401</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>0.78374513665503798</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0.78106360717198198</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>0.78010750328470402</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>0.77252139305454803</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.78374513665503798</c:v>
-                </c:pt>
                 <c:pt idx="21">
+                  <c:v>0.76961627004802402</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.75820379751495104</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>0.757705888682493</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
+                  <c:v>0.75250359618521201</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>0.75120316464298598</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="26">
+                  <c:v>0.74880501172299696</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>0.74857423290820901</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.76961627004802402</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.75250359618521201</c:v>
-                </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="28">
+                  <c:v>0.736239565399601</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>0.73470789490077903</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.75820379751495104</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.74880501172299696</c:v>
-                </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>0.73434254230472995</c:v>
                 </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.71418362348223996</c:v>
-                </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.736239565399601</c:v>
+                  <c:v>0.72940840629530601</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.71887583108689701</c:v>
                 </c:pt>
                 <c:pt idx="33">
+                  <c:v>0.71418362348223996</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>0.703785338890902</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
+                  <c:v>0.70326771475172101</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.69072831953379799</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>0.68831299978479499</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.69072831953379799</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.70326771475172101</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.72940840629530601</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0.68265545006116302</c:v>
@@ -1052,7 +1053,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="C00000"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1240,7 +1241,7 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="BC2A7D"/>
+                <a:srgbClr val="B9297B"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
@@ -1870,10 +1871,10 @@
                   <c:v>380.88006902502099</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>461.19951679780598</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>453.02759649150897</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>461.19951679780598</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>538.22864872073296</c:v>
@@ -1888,82 +1889,82 @@
                   <c:v>684.46942533191202</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>802.13963260554704</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>858.05017311547101</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>727.67958789439797</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>802.13963260554704</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>848.56610800744795</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>858.05017311547101</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1034.04435985652</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>1173.2624584717601</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>1036.05412739741</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>1058.2126001947699</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>1189.4143897612901</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>1173.2624584717601</c:v>
-                </c:pt>
                 <c:pt idx="21">
+                  <c:v>1323.47215065348</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1519.8321588035899</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>1191.7725470344999</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
+                  <c:v>1535.1097587480899</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>1385.1814081192299</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="26">
+                  <c:v>1610.45203214957</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>1518.0355703616101</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>1323.47215065348</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1535.1097587480899</c:v>
-                </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="28">
+                  <c:v>1778.31938062566</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>1590.5956536425999</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>1519.8321588035899</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1610.45203214957</c:v>
-                </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>1793.67405244111</c:v>
                 </c:pt>
-                <c:pt idx="30">
-                  <c:v>1723.74374618669</c:v>
-                </c:pt>
                 <c:pt idx="31">
-                  <c:v>1778.31938062566</c:v>
+                  <c:v>1937.3352533772199</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>1652.2697233756301</c:v>
                 </c:pt>
                 <c:pt idx="33">
+                  <c:v>1723.74374618669</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>2002.70504005103</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
+                  <c:v>2027.2789896670399</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2134.4938047748501</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>2125.6609735911502</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2134.4938047748501</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2027.2789896670399</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1937.3352533772199</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>2361.4309595453001</c:v>
@@ -1996,10 +1997,10 @@
                   <c:v>0.86953323214932898</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.85858022890993102</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.84794659948124296</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.85858022890993102</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.84384022319001395</c:v>
@@ -2014,82 +2015,82 @@
                   <c:v>0.83476771333590005</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>0.818686429639362</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.80996582208227597</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0.80929819171348305</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.818686429639362</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>0.79586067047616804</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.80996582208227597</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.79547577955101401</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>0.78374513665503798</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0.78106360717198198</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>0.78010750328470402</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>0.77252139305454803</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.78374513665503798</c:v>
-                </c:pt>
                 <c:pt idx="21">
+                  <c:v>0.76961627004802402</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.75820379751495104</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>0.757705888682493</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
+                  <c:v>0.75250359618521201</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>0.75120316464298598</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="26">
+                  <c:v>0.74880501172299696</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>0.74857423290820901</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.76961627004802402</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.75250359618521201</c:v>
-                </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="28">
+                  <c:v>0.736239565399601</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>0.73470789490077903</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.75820379751495104</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.74880501172299696</c:v>
-                </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>0.73434254230472995</c:v>
                 </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.71418362348223996</c:v>
-                </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.736239565399601</c:v>
+                  <c:v>0.72940840629530601</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.71887583108689701</c:v>
                 </c:pt>
                 <c:pt idx="33">
+                  <c:v>0.71418362348223996</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>0.703785338890902</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
+                  <c:v>0.70326771475172101</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.69072831953379799</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>0.68831299978479499</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.69072831953379799</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.70326771475172101</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.72940840629530601</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0.68265545006116302</c:v>
@@ -2454,19 +2455,19 @@
                   <c:v>664.89184962528202</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>800.63782435373798</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>846.27442870437403</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>728.53124443653201</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>800.63782435373798</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
+                  <c:v>983.92882904544399</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>896.61700262927195</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>846.27442870437403</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>983.92882904544399</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>1037.2700484775501</c:v>
@@ -2475,61 +2476,61 @@
                   <c:v>1030.08967622164</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>1105.3543572947899</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>1106.17604325054</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>1105.3543572947899</c:v>
-                </c:pt>
                 <c:pt idx="21">
+                  <c:v>1261.503602944</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>1209.9822590183301</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>1261.503602944</c:v>
-                </c:pt>
                 <c:pt idx="23">
+                  <c:v>1478.1145024381401</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>1394.5593184238501</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>1359.01365768608</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>1478.1145024381401</c:v>
-                </c:pt>
                 <c:pt idx="26">
+                  <c:v>1468.3028345891601</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1499.5776647886</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1746.82674350354</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>1591.04199066874</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>1468.3028345891601</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1499.5776647886</c:v>
-                </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
+                  <c:v>1728.4730728616601</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1764.7178049700799</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1737.0943436272901</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>1753.84549448194</c:v>
                 </c:pt>
-                <c:pt idx="30">
-                  <c:v>1764.7178049700799</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1746.82674350354</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1728.4730728616601</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1737.0943436272901</c:v>
-                </c:pt>
                 <c:pt idx="34">
+                  <c:v>1898.25350805984</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1894.9571660106501</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>1963.49067354405</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="37">
                   <c:v>2115.35797363659</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1898.25350805984</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1894.9571660106501</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>2180.5954839139399</c:v>
@@ -2580,19 +2581,19 @@
                   <c:v>0.43891340392360001</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>0.415561097317798</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.41408183575422303</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0.41200197450735099</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.415561097317798</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
+                  <c:v>0.40114856823780098</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>0.399612521260166</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.41408183575422303</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.40114856823780098</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0.38792337054269599</c:v>
@@ -2601,61 +2602,61 @@
                   <c:v>0.38740277139701301</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>0.38601762272247397</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0.38215593965045302</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.38601762272247397</c:v>
-                </c:pt>
                 <c:pt idx="21">
+                  <c:v>0.36059510747380302</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>0.35917605250039097</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.36059510747380302</c:v>
-                </c:pt>
                 <c:pt idx="23">
+                  <c:v>0.35566039695417501</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>0.353069955720206</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>0.35188146357913602</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.35566039695417501</c:v>
-                </c:pt>
                 <c:pt idx="26">
+                  <c:v>0.35179483451282401</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.34941171044142899</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.33710231882428798</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>0.33522018322841701</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.35179483451282401</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.34941171044142899</c:v>
-                </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
+                  <c:v>0.32954109199053799</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.32878412623162301</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.326088483832499</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>0.32602320657061301</c:v>
                 </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.32878412623162301</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.33710231882428798</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.32954109199053799</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.326088483832499</c:v>
-                </c:pt>
                 <c:pt idx="34">
+                  <c:v>0.32578650394901398</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.32044497893532897</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>0.31663183379926402</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="37">
                   <c:v>0.30853656748514202</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.32578650394901398</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.32044497893532897</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0.30849377223764402</c:v>
@@ -2698,10 +2699,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>emacs!$E$5:$E$23</c:f>
+              <c:f>emacs!$E$5:$E$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>21.1837620802449</c:v>
                 </c:pt>
@@ -2758,16 +2759,100 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>33.205308827929699</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>33.945079887476297</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>34.338159325934299</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>34.580050913162403</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>34.743361704837298</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>34.861235642771497</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>34.949402426591</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>35.020474880295701</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>35.077586410109603</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>35.124103316788997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>35.170894901837698</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>35.217697664186304</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35.251296728808398</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>35.275378778491202</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>35.294546356241398</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>35.314077615443601</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35.332181398445996</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35.348280758204702</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>35.3624847828223</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>35.374941784259697</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>35.386145291976099</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>35.396513899746203</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>35.4064290612082</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>35.414625703158798</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>35.422557842355403</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>35.429036475243002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>35.436207902476298</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>35.442806645266401</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>35.448563369300899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>emacs!$F$5:$F$23</c:f>
+              <c:f>emacs!$F$5:$F$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0.69279234560721004</c:v>
                 </c:pt>
@@ -2824,6 +2909,90 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.53041504975367504</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.49619782095519199</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.47042671229863903</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.45006365831248002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.43355489521426299</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.41905329337073799</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.40605621481075999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.394495541474429</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.38430645429308702</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.375891277467156</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.36814802573701899</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.36162705026196401</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.35479105166953301</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.34871473744917098</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.34331221164372799</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33759173028424999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.33260377771152599</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.32820411469737198</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.32421600084063101</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.31987807172740002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.316745618450891</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.31318322719541702</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.30984648083163902</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.30804214644588601</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.30535801996989298</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.30168462376837601</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.29859246094971797</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.29586734145292398</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.29309634154089698</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2852,7 +3021,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="C00000"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3040,7 +3209,7 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="BC2A7D"/>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
@@ -3204,6 +3373,7 @@
         <c:axId val="56698098"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="3500"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -8459,7 +8629,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -8489,7 +8665,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -8524,7 +8706,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -8559,7 +8747,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 2"/>
+        <xdr:cNvPr id="2" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -8594,7 +8788,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -8629,7 +8829,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 2"/>
+        <xdr:cNvPr id="4" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -8664,7 +8870,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -8981,21 +9193,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V25" sqref="V25"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1025" width="8.875"/>
+    <col min="1" max="1025" width="8.87890625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -9009,7 +9221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -9053,7 +9265,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>100</v>
       </c>
@@ -9097,7 +9309,7 @@
         <v>0.89836957598994205</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>150</v>
       </c>
@@ -9141,7 +9353,7 @@
         <v>0.88550089621466099</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>200</v>
       </c>
@@ -9185,7 +9397,7 @@
         <v>0.87308428806859295</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>250</v>
       </c>
@@ -9229,7 +9441,7 @@
         <v>0.85978926920985799</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>300</v>
       </c>
@@ -9273,7 +9485,7 @@
         <v>0.84855419904177198</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>350</v>
       </c>
@@ -9317,15 +9529,15 @@
         <v>0.827863214706415</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A11">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="B11">
-        <v>453.02759649150897</v>
+        <v>461.19951679780598</v>
       </c>
       <c r="C11">
-        <v>0.84794659948124296</v>
+        <v>0.85858022890993102</v>
       </c>
       <c r="D11">
         <v>400</v>
@@ -9361,15 +9573,15 @@
         <v>0.81863655734641105</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A12">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="B12">
-        <v>461.19951679780598</v>
+        <v>453.02759649150897</v>
       </c>
       <c r="C12">
-        <v>0.85858022890993102</v>
+        <v>0.84794659948124296</v>
       </c>
       <c r="D12">
         <v>450</v>
@@ -9405,7 +9617,7 @@
         <v>0.80809085039869499</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>500</v>
       </c>
@@ -9449,7 +9661,7 @@
         <v>0.79844217220913305</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>550</v>
       </c>
@@ -9493,7 +9705,7 @@
         <v>0.78946066424655603</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>600</v>
       </c>
@@ -9537,7 +9749,7 @@
         <v>0.78241231820859003</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>650</v>
       </c>
@@ -9581,15 +9793,15 @@
         <v>0.77467988288329104</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A17">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="B17">
-        <v>727.67958789439797</v>
+        <v>802.13963260554704</v>
       </c>
       <c r="C17">
-        <v>0.80929819171348305</v>
+        <v>0.818686429639362</v>
       </c>
       <c r="D17">
         <v>700</v>
@@ -9625,15 +9837,15 @@
         <v>0.76701717673976</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A18">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="B18">
-        <v>802.13963260554704</v>
+        <v>858.05017311547101</v>
       </c>
       <c r="C18">
-        <v>0.818686429639362</v>
+        <v>0.80996582208227597</v>
       </c>
       <c r="D18">
         <v>750</v>
@@ -9669,15 +9881,15 @@
         <v>0.75999523576250405</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A19">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="B19">
-        <v>848.56610800744795</v>
+        <v>727.67958789439797</v>
       </c>
       <c r="C19">
-        <v>0.79586067047616804</v>
+        <v>0.80929819171348305</v>
       </c>
       <c r="D19">
         <v>800</v>
@@ -9713,15 +9925,15 @@
         <v>0.75356570966609204</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A20">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="B20">
-        <v>858.05017311547101</v>
+        <v>848.56610800744795</v>
       </c>
       <c r="C20">
-        <v>0.80996582208227597</v>
+        <v>0.79586067047616804</v>
       </c>
       <c r="D20">
         <v>850</v>
@@ -9757,7 +9969,7 @@
         <v>0.74758439708680602</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>900</v>
       </c>
@@ -9801,15 +10013,15 @@
         <v>0.740490744778452</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A22">
-        <v>950</v>
+        <v>1100</v>
       </c>
       <c r="B22">
-        <v>1036.05412739741</v>
+        <v>1173.2624584717601</v>
       </c>
       <c r="C22">
-        <v>0.78106360717198198</v>
+        <v>0.78374513665503798</v>
       </c>
       <c r="D22">
         <v>950</v>
@@ -9845,15 +10057,15 @@
         <v>0.73207641468829199</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A23">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="B23">
-        <v>1058.2126001947699</v>
+        <v>1036.05412739741</v>
       </c>
       <c r="C23">
-        <v>0.78010750328470402</v>
+        <v>0.78106360717198198</v>
       </c>
       <c r="D23">
         <v>1000</v>
@@ -9889,15 +10101,15 @@
         <v>0.72507829489851305</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A24">
-        <v>1050</v>
+        <v>1000</v>
       </c>
       <c r="B24">
-        <v>1189.4143897612901</v>
+        <v>1058.2126001947699</v>
       </c>
       <c r="C24">
-        <v>0.77252139305454803</v>
+        <v>0.78010750328470402</v>
       </c>
       <c r="D24">
         <v>1500</v>
@@ -9909,15 +10121,15 @@
         <v>0.90127438043675201</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A25">
-        <v>1100</v>
+        <v>1050</v>
       </c>
       <c r="B25">
-        <v>1173.2624584717601</v>
+        <v>1189.4143897612901</v>
       </c>
       <c r="C25">
-        <v>0.78374513665503798</v>
+        <v>0.77252139305454803</v>
       </c>
       <c r="D25">
         <v>2000</v>
@@ -9929,15 +10141,15 @@
         <v>0.88894420815965902</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A26">
-        <v>1150</v>
+        <v>1300</v>
       </c>
       <c r="B26">
-        <v>1191.7725470344999</v>
+        <v>1323.47215065348</v>
       </c>
       <c r="C26">
-        <v>0.757705888682493</v>
+        <v>0.76961627004802402</v>
       </c>
       <c r="D26">
         <v>2500</v>
@@ -9949,15 +10161,15 @@
         <v>0.87682205537558899</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A27">
-        <v>1200</v>
+        <v>1450</v>
       </c>
       <c r="B27">
-        <v>1385.1814081192299</v>
+        <v>1519.8321588035899</v>
       </c>
       <c r="C27">
-        <v>0.75120316464298598</v>
+        <v>0.75820379751495104</v>
       </c>
       <c r="D27">
         <v>3000</v>
@@ -9969,15 +10181,15 @@
         <v>0.86616711784160905</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A28">
-        <v>1250</v>
+        <v>1150</v>
       </c>
       <c r="B28">
-        <v>1518.0355703616101</v>
+        <v>1191.7725470344999</v>
       </c>
       <c r="C28">
-        <v>0.74857423290820901</v>
+        <v>0.757705888682493</v>
       </c>
       <c r="D28">
         <v>3500</v>
@@ -9989,15 +10201,15 @@
         <v>0.85665818117977499</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A29">
-        <v>1300</v>
+        <v>1350</v>
       </c>
       <c r="B29">
-        <v>1323.47215065348</v>
+        <v>1535.1097587480899</v>
       </c>
       <c r="C29">
-        <v>0.76961627004802402</v>
+        <v>0.75250359618521201</v>
       </c>
       <c r="D29">
         <v>4000</v>
@@ -10009,15 +10221,15 @@
         <v>0.84602802051241299</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A30">
-        <v>1350</v>
+        <v>1200</v>
       </c>
       <c r="B30">
-        <v>1535.1097587480899</v>
+        <v>1385.1814081192299</v>
       </c>
       <c r="C30">
-        <v>0.75250359618521201</v>
+        <v>0.75120316464298598</v>
       </c>
       <c r="D30">
         <v>4500</v>
@@ -10029,15 +10241,15 @@
         <v>0.83718582933127905</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A31">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="B31">
-        <v>1590.5956536425999</v>
+        <v>1610.45203214957</v>
       </c>
       <c r="C31">
-        <v>0.73470789490077903</v>
+        <v>0.74880501172299696</v>
       </c>
       <c r="D31">
         <v>5000</v>
@@ -10049,15 +10261,15 @@
         <v>0.82657280009740797</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A32">
-        <v>1450</v>
+        <v>1250</v>
       </c>
       <c r="B32">
-        <v>1519.8321588035899</v>
+        <v>1518.0355703616101</v>
       </c>
       <c r="C32">
-        <v>0.75820379751495104</v>
+        <v>0.74857423290820901</v>
       </c>
       <c r="D32">
         <v>5500</v>
@@ -10069,15 +10281,15 @@
         <v>0.81844683733916201</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A33">
-        <v>1500</v>
+        <v>1650</v>
       </c>
       <c r="B33">
-        <v>1610.45203214957</v>
+        <v>1778.31938062566</v>
       </c>
       <c r="C33">
-        <v>0.74880501172299696</v>
+        <v>0.736239565399601</v>
       </c>
       <c r="D33">
         <v>6000</v>
@@ -10089,15 +10301,15 @@
         <v>0.81083099486906396</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A34">
-        <v>1550</v>
+        <v>1400</v>
       </c>
       <c r="B34">
-        <v>1793.67405244111</v>
+        <v>1590.5956536425999</v>
       </c>
       <c r="C34">
-        <v>0.73434254230472995</v>
+        <v>0.73470789490077903</v>
       </c>
       <c r="D34">
         <v>6500</v>
@@ -10109,15 +10321,15 @@
         <v>0.80300886728660703</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A35">
-        <v>1600</v>
+        <v>1550</v>
       </c>
       <c r="B35">
-        <v>1723.74374618669</v>
+        <v>1793.67405244111</v>
       </c>
       <c r="C35">
-        <v>0.71418362348223996</v>
+        <v>0.73434254230472995</v>
       </c>
       <c r="D35">
         <v>7000</v>
@@ -10129,15 +10341,15 @@
         <v>0.79562596275824504</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A36">
-        <v>1650</v>
+        <v>1950</v>
       </c>
       <c r="B36">
-        <v>1778.31938062566</v>
+        <v>1937.3352533772199</v>
       </c>
       <c r="C36">
-        <v>0.736239565399601</v>
+        <v>0.72940840629530601</v>
       </c>
       <c r="D36">
         <v>7500</v>
@@ -10149,7 +10361,7 @@
         <v>0.78829905394844102</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A37">
         <v>1700</v>
       </c>
@@ -10184,15 +10396,15 @@
         <v>0.89531908356741596</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A38">
-        <v>1750</v>
+        <v>1600</v>
       </c>
       <c r="B38">
-        <v>2002.70504005103</v>
+        <v>1723.74374618669</v>
       </c>
       <c r="C38">
-        <v>0.703785338890902</v>
+        <v>0.71418362348223996</v>
       </c>
       <c r="D38">
         <v>8500</v>
@@ -10219,15 +10431,15 @@
         <v>0.88063312681225103</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A39">
-        <v>1800</v>
+        <v>1750</v>
       </c>
       <c r="B39">
-        <v>2125.6609735911502</v>
+        <v>2002.70504005103</v>
       </c>
       <c r="C39">
-        <v>0.68831299978479499</v>
+        <v>0.703785338890902</v>
       </c>
       <c r="D39">
         <v>9000</v>
@@ -10254,15 +10466,15 @@
         <v>0.86616909999093905</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A40">
-        <v>1850</v>
+        <v>1900</v>
       </c>
       <c r="B40">
-        <v>2134.4938047748501</v>
+        <v>2027.2789896670399</v>
       </c>
       <c r="C40">
-        <v>0.69072831953379799</v>
+        <v>0.70326771475172101</v>
       </c>
       <c r="D40">
         <v>9500</v>
@@ -10289,15 +10501,15 @@
         <v>0.85183479776413595</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A41">
-        <v>1900</v>
+        <v>1850</v>
       </c>
       <c r="B41">
-        <v>2027.2789896670399</v>
+        <v>2134.4938047748501</v>
       </c>
       <c r="C41">
-        <v>0.70326771475172101</v>
+        <v>0.69072831953379799</v>
       </c>
       <c r="D41">
         <v>10000</v>
@@ -10324,15 +10536,15 @@
         <v>0.84360781618113401</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A42">
-        <v>1950</v>
+        <v>1800</v>
       </c>
       <c r="B42">
-        <v>1937.3352533772199</v>
+        <v>2125.6609735911502</v>
       </c>
       <c r="C42">
-        <v>0.72940840629530601</v>
+        <v>0.68831299978479499</v>
       </c>
       <c r="D42">
         <v>10500</v>
@@ -10359,7 +10571,7 @@
         <v>0.83206650394164505</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A43">
         <v>2000</v>
       </c>
@@ -10394,7 +10606,7 @@
         <v>0.81304332128941603</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.5">
       <c r="D44">
         <v>11500</v>
       </c>
@@ -10420,7 +10632,7 @@
         <v>0.81393097023378003</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.5">
       <c r="D45">
         <v>12000</v>
       </c>
@@ -10446,7 +10658,7 @@
         <v>0.80019311797752801</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.5">
       <c r="D46">
         <v>12500</v>
       </c>
@@ -10472,7 +10684,7 @@
         <v>0.79526790164008698</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.5">
       <c r="D47">
         <v>13000</v>
       </c>
@@ -10498,7 +10710,7 @@
         <v>0.78903145812567899</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.5">
       <c r="D48">
         <v>13500</v>
       </c>
@@ -10524,7 +10736,7 @@
         <v>0.78166671150099698</v>
       </c>
     </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:11" x14ac:dyDescent="0.5">
       <c r="D49">
         <v>14000</v>
       </c>
@@ -10550,7 +10762,7 @@
         <v>0.76015702870152202</v>
       </c>
     </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:11" x14ac:dyDescent="0.5">
       <c r="D50">
         <v>14500</v>
       </c>
@@ -10576,7 +10788,7 @@
         <v>0.76142234788419705</v>
       </c>
     </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:11" x14ac:dyDescent="0.5">
       <c r="D51">
         <v>15000</v>
       </c>
@@ -10602,7 +10814,7 @@
         <v>0.74804910491799603</v>
       </c>
     </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:11" x14ac:dyDescent="0.5">
       <c r="D52">
         <v>15500</v>
       </c>
@@ -10628,7 +10840,7 @@
         <v>0.75026904137595096</v>
       </c>
     </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:11" x14ac:dyDescent="0.5">
       <c r="D53">
         <v>16000</v>
       </c>
@@ -10654,7 +10866,7 @@
         <v>0.73662718178008302</v>
       </c>
     </row>
-    <row r="54" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:11" x14ac:dyDescent="0.5">
       <c r="D54">
         <v>16500</v>
       </c>
@@ -10680,7 +10892,7 @@
         <v>0.728198410316238</v>
       </c>
     </row>
-    <row r="55" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:11" x14ac:dyDescent="0.5">
       <c r="D55">
         <v>17000</v>
       </c>
@@ -10706,7 +10918,7 @@
         <v>0.72242971864806105</v>
       </c>
     </row>
-    <row r="56" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:11" x14ac:dyDescent="0.5">
       <c r="D56">
         <v>17500</v>
       </c>
@@ -10717,7 +10929,7 @@
         <v>0.6863252933581</v>
       </c>
     </row>
-    <row r="57" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:11" x14ac:dyDescent="0.5">
       <c r="D57">
         <v>18000</v>
       </c>
@@ -10728,7 +10940,7 @@
         <v>0.68235611011689001</v>
       </c>
     </row>
-    <row r="58" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:11" x14ac:dyDescent="0.5">
       <c r="D58">
         <v>18500</v>
       </c>
@@ -10739,7 +10951,7 @@
         <v>0.679178724741754</v>
       </c>
     </row>
-    <row r="59" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:11" x14ac:dyDescent="0.5">
       <c r="D59">
         <v>19000</v>
       </c>
@@ -10750,7 +10962,7 @@
         <v>0.67724658928733195</v>
       </c>
     </row>
-    <row r="60" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:11" x14ac:dyDescent="0.5">
       <c r="D60">
         <v>19500</v>
       </c>
@@ -10761,7 +10973,7 @@
         <v>0.67370675374909295</v>
       </c>
     </row>
-    <row r="61" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:11" x14ac:dyDescent="0.5">
       <c r="D61">
         <v>20000</v>
       </c>
@@ -10773,6 +10985,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="A5:C43">
+    <sortCondition descending="1" ref="C5:C43"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
@@ -10785,9 +11000,9 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1025" width="9.125"/>
+    <col min="1" max="1025" width="9.1171875"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -10807,9 +11022,9 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1025" width="9.125"/>
+    <col min="1" max="1025" width="9.1171875"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -10825,21 +11040,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35:F51"/>
+    <sheetView topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1025" width="8.875"/>
+    <col min="1" max="1025" width="8.87890625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -10853,7 +11068,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -10897,7 +11112,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>100</v>
       </c>
@@ -10941,7 +11156,7 @@
         <v>0.565048501280497</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>150</v>
       </c>
@@ -10985,7 +11200,7 @@
         <v>0.52979819948389095</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>200</v>
       </c>
@@ -11029,7 +11244,7 @@
         <v>0.50263433614521402</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>250</v>
       </c>
@@ -11073,7 +11288,7 @@
         <v>0.47959082122888602</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>300</v>
       </c>
@@ -11117,7 +11332,7 @@
         <v>0.458612230460197</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>350</v>
       </c>
@@ -11161,7 +11376,7 @@
         <v>0.44094213080622402</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>400</v>
       </c>
@@ -11205,7 +11420,7 @@
         <v>0.42703850167148799</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>450</v>
       </c>
@@ -11249,7 +11464,7 @@
         <v>0.41399859731779698</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>500</v>
       </c>
@@ -11293,7 +11508,7 @@
         <v>0.40188879467078498</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>550</v>
       </c>
@@ -11337,7 +11552,7 @@
         <v>0.38752608646778203</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>600</v>
       </c>
@@ -11381,7 +11596,7 @@
         <v>0.37757128875703699</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>650</v>
       </c>
@@ -11425,15 +11640,15 @@
         <v>0.36833594605294001</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A17">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="B17">
-        <v>728.53124443653201</v>
+        <v>800.63782435373798</v>
       </c>
       <c r="C17">
-        <v>0.41200197450735099</v>
+        <v>0.415561097317798</v>
       </c>
       <c r="D17">
         <v>700</v>
@@ -11469,15 +11684,15 @@
         <v>0.360014087914451</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A18">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="B18">
-        <v>800.63782435373798</v>
+        <v>846.27442870437403</v>
       </c>
       <c r="C18">
-        <v>0.415561097317798</v>
+        <v>0.41408183575422303</v>
       </c>
       <c r="D18">
         <v>750</v>
@@ -11513,15 +11728,15 @@
         <v>0.35226882013410998</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A19">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="B19">
-        <v>896.61700262927195</v>
+        <v>728.53124443653201</v>
       </c>
       <c r="C19">
-        <v>0.399612521260166</v>
+        <v>0.41200197450735099</v>
       </c>
       <c r="D19">
         <v>800</v>
@@ -11557,15 +11772,15 @@
         <v>0.34549443325774098</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A20">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="B20">
-        <v>846.27442870437403</v>
+        <v>983.92882904544399</v>
       </c>
       <c r="C20">
-        <v>0.41408183575422303</v>
+        <v>0.40114856823780098</v>
       </c>
       <c r="D20">
         <v>850</v>
@@ -11601,15 +11816,15 @@
         <v>0.33895338891929899</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A21">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="B21">
-        <v>983.92882904544399</v>
+        <v>896.61700262927195</v>
       </c>
       <c r="C21">
-        <v>0.40114856823780098</v>
+        <v>0.399612521260166</v>
       </c>
       <c r="D21">
         <v>900</v>
@@ -11645,7 +11860,7 @@
         <v>0.33179876275609899</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>950</v>
       </c>
@@ -11689,7 +11904,7 @@
         <v>0.32516143674734099</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A23">
         <v>1000</v>
       </c>
@@ -11733,15 +11948,15 @@
         <v>0.31920437495112602</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A24">
-        <v>1050</v>
+        <v>1100</v>
       </c>
       <c r="B24">
-        <v>1106.17604325054</v>
+        <v>1105.3543572947899</v>
       </c>
       <c r="C24">
-        <v>0.38215593965045302</v>
+        <v>0.38601762272247397</v>
       </c>
       <c r="D24">
         <v>1500</v>
@@ -11753,15 +11968,15 @@
         <v>0.49619782095519199</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A25">
-        <v>1100</v>
+        <v>1050</v>
       </c>
       <c r="B25">
-        <v>1105.3543572947899</v>
+        <v>1106.17604325054</v>
       </c>
       <c r="C25">
-        <v>0.38601762272247397</v>
+        <v>0.38215593965045302</v>
       </c>
       <c r="D25">
         <v>2000</v>
@@ -11773,15 +11988,15 @@
         <v>0.47042671229863903</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A26">
-        <v>1150</v>
+        <v>1200</v>
       </c>
       <c r="B26">
-        <v>1209.9822590183301</v>
+        <v>1261.503602944</v>
       </c>
       <c r="C26">
-        <v>0.35917605250039097</v>
+        <v>0.36059510747380302</v>
       </c>
       <c r="D26">
         <v>2500</v>
@@ -11793,15 +12008,15 @@
         <v>0.45006365831248002</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A27">
-        <v>1200</v>
+        <v>1150</v>
       </c>
       <c r="B27">
-        <v>1261.503602944</v>
+        <v>1209.9822590183301</v>
       </c>
       <c r="C27">
-        <v>0.36059510747380302</v>
+        <v>0.35917605250039097</v>
       </c>
       <c r="D27">
         <v>3000</v>
@@ -11813,15 +12028,15 @@
         <v>0.43355489521426299</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A28">
-        <v>1250</v>
+        <v>1350</v>
       </c>
       <c r="B28">
-        <v>1394.5593184238501</v>
+        <v>1478.1145024381401</v>
       </c>
       <c r="C28">
-        <v>0.353069955720206</v>
+        <v>0.35566039695417501</v>
       </c>
       <c r="D28">
         <v>3500</v>
@@ -11833,15 +12048,15 @@
         <v>0.41905329337073799</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A29">
-        <v>1300</v>
+        <v>1250</v>
       </c>
       <c r="B29">
-        <v>1359.01365768608</v>
+        <v>1394.5593184238501</v>
       </c>
       <c r="C29">
-        <v>0.35188146357913602</v>
+        <v>0.353069955720206</v>
       </c>
       <c r="D29">
         <v>4000</v>
@@ -11853,15 +12068,15 @@
         <v>0.40605621481075999</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A30">
-        <v>1350</v>
+        <v>1300</v>
       </c>
       <c r="B30">
-        <v>1478.1145024381401</v>
+        <v>1359.01365768608</v>
       </c>
       <c r="C30">
-        <v>0.35566039695417501</v>
+        <v>0.35188146357913602</v>
       </c>
       <c r="D30">
         <v>4500</v>
@@ -11873,15 +12088,15 @@
         <v>0.394495541474429</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A31">
-        <v>1400</v>
+        <v>1450</v>
       </c>
       <c r="B31">
-        <v>1591.04199066874</v>
+        <v>1468.3028345891601</v>
       </c>
       <c r="C31">
-        <v>0.33522018322841701</v>
+        <v>0.35179483451282401</v>
       </c>
       <c r="D31">
         <v>5000</v>
@@ -11893,15 +12108,15 @@
         <v>0.38430645429308702</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A32">
-        <v>1450</v>
+        <v>1500</v>
       </c>
       <c r="B32">
-        <v>1468.3028345891601</v>
+        <v>1499.5776647886</v>
       </c>
       <c r="C32">
-        <v>0.35179483451282401</v>
+        <v>0.34941171044142899</v>
       </c>
       <c r="D32">
         <v>5500</v>
@@ -11913,15 +12128,15 @@
         <v>0.375891277467156</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A33">
-        <v>1500</v>
+        <v>1650</v>
       </c>
       <c r="B33">
-        <v>1499.5776647886</v>
+        <v>1746.82674350354</v>
       </c>
       <c r="C33">
-        <v>0.34941171044142899</v>
+        <v>0.33710231882428798</v>
       </c>
       <c r="D33">
         <v>6000</v>
@@ -11933,15 +12148,15 @@
         <v>0.36814802573701899</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A34">
-        <v>1550</v>
+        <v>1400</v>
       </c>
       <c r="B34">
-        <v>1753.84549448194</v>
+        <v>1591.04199066874</v>
       </c>
       <c r="C34">
-        <v>0.32602320657061301</v>
+        <v>0.33522018322841701</v>
       </c>
       <c r="D34">
         <v>6500</v>
@@ -11953,15 +12168,15 @@
         <v>0.36162705026196401</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A35">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="B35">
-        <v>1764.7178049700799</v>
+        <v>1728.4730728616601</v>
       </c>
       <c r="C35">
-        <v>0.32878412623162301</v>
+        <v>0.32954109199053799</v>
       </c>
       <c r="D35">
         <v>7000</v>
@@ -11973,15 +12188,15 @@
         <v>0.35479105166953301</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A36">
-        <v>1650</v>
+        <v>1600</v>
       </c>
       <c r="B36">
-        <v>1746.82674350354</v>
+        <v>1764.7178049700799</v>
       </c>
       <c r="C36">
-        <v>0.33710231882428798</v>
+        <v>0.32878412623162301</v>
       </c>
       <c r="D36">
         <v>7500</v>
@@ -11993,15 +12208,15 @@
         <v>0.34871473744917098</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A37">
-        <v>1700</v>
+        <v>1750</v>
       </c>
       <c r="B37">
-        <v>1728.4730728616601</v>
+        <v>1737.0943436272901</v>
       </c>
       <c r="C37">
-        <v>0.32954109199053799</v>
+        <v>0.326088483832499</v>
       </c>
       <c r="D37">
         <v>8000</v>
@@ -12013,15 +12228,15 @@
         <v>0.34331221164372799</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A38">
-        <v>1750</v>
+        <v>1550</v>
       </c>
       <c r="B38">
-        <v>1737.0943436272901</v>
+        <v>1753.84549448194</v>
       </c>
       <c r="C38">
-        <v>0.326088483832499</v>
+        <v>0.32602320657061301</v>
       </c>
       <c r="D38">
         <v>8500</v>
@@ -12033,15 +12248,15 @@
         <v>0.33759173028424999</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A39">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="B39">
-        <v>1963.49067354405</v>
+        <v>1898.25350805984</v>
       </c>
       <c r="C39">
-        <v>0.31663183379926402</v>
+        <v>0.32578650394901398</v>
       </c>
       <c r="D39">
         <v>9000</v>
@@ -12053,15 +12268,15 @@
         <v>0.33260377771152599</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A40">
-        <v>1850</v>
+        <v>1950</v>
       </c>
       <c r="B40">
-        <v>2115.35797363659</v>
+        <v>1894.9571660106501</v>
       </c>
       <c r="C40">
-        <v>0.30853656748514202</v>
+        <v>0.32044497893532897</v>
       </c>
       <c r="D40">
         <v>9500</v>
@@ -12073,15 +12288,15 @@
         <v>0.32820411469737198</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A41">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="B41">
-        <v>1898.25350805984</v>
+        <v>1963.49067354405</v>
       </c>
       <c r="C41">
-        <v>0.32578650394901398</v>
+        <v>0.31663183379926402</v>
       </c>
       <c r="D41">
         <v>10000</v>
@@ -12093,15 +12308,15 @@
         <v>0.32421600084063101</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A42">
-        <v>1950</v>
+        <v>1850</v>
       </c>
       <c r="B42">
-        <v>1894.9571660106501</v>
+        <v>2115.35797363659</v>
       </c>
       <c r="C42">
-        <v>0.32044497893532897</v>
+        <v>0.30853656748514202</v>
       </c>
       <c r="D42">
         <v>10500</v>
@@ -12113,7 +12328,7 @@
         <v>0.31987807172740002</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A43">
         <v>2000</v>
       </c>
@@ -12133,7 +12348,7 @@
         <v>0.316745618450891</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.5">
       <c r="D44">
         <v>11500</v>
       </c>
@@ -12144,7 +12359,7 @@
         <v>0.31318322719541702</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.5">
       <c r="D45">
         <v>12000</v>
       </c>
@@ -12155,7 +12370,7 @@
         <v>0.30984648083163902</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.5">
       <c r="D46">
         <v>12500</v>
       </c>
@@ -12166,7 +12381,7 @@
         <v>0.30804214644588601</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.5">
       <c r="D47">
         <v>13000</v>
       </c>
@@ -12177,7 +12392,7 @@
         <v>0.30535801996989298</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.5">
       <c r="D48">
         <v>13500</v>
       </c>
@@ -12188,7 +12403,7 @@
         <v>0.30168462376837601</v>
       </c>
     </row>
-    <row r="49" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:6" x14ac:dyDescent="0.5">
       <c r="D49">
         <v>14000</v>
       </c>
@@ -12199,7 +12414,7 @@
         <v>0.29859246094971797</v>
       </c>
     </row>
-    <row r="50" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:6" x14ac:dyDescent="0.5">
       <c r="D50">
         <v>14500</v>
       </c>
@@ -12210,7 +12425,7 @@
         <v>0.29586734145292398</v>
       </c>
     </row>
-    <row r="51" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:6" x14ac:dyDescent="0.5">
       <c r="D51">
         <v>15000</v>
       </c>
@@ -12222,6 +12437,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="A5:C43">
+    <sortCondition descending="1" ref="C5:C43"/>
+  </sortState>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter>
@@ -12240,12 +12458,12 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1025" width="8.875"/>
+    <col min="1" max="1025" width="8.87890625"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -12253,7 +12471,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -12261,7 +12479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -12281,7 +12499,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>100</v>
       </c>
@@ -12301,7 +12519,7 @@
         <v>0.89836957598994205</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>150</v>
       </c>
@@ -12321,7 +12539,7 @@
         <v>0.88550089621466099</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>200</v>
       </c>
@@ -12341,7 +12559,7 @@
         <v>0.87308428806859295</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>250</v>
       </c>
@@ -12361,7 +12579,7 @@
         <v>0.85978926920985799</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>300</v>
       </c>
@@ -12381,7 +12599,7 @@
         <v>0.84855419904177198</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>350</v>
       </c>
@@ -12401,7 +12619,7 @@
         <v>0.827863214706415</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>400</v>
       </c>
@@ -12421,7 +12639,7 @@
         <v>0.81863655734641105</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>450</v>
       </c>
@@ -12441,7 +12659,7 @@
         <v>0.80809085039869499</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>500</v>
       </c>
@@ -12461,7 +12679,7 @@
         <v>0.79844217220913305</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>550</v>
       </c>
@@ -12481,7 +12699,7 @@
         <v>0.78946066424655603</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>600</v>
       </c>
@@ -12501,7 +12719,7 @@
         <v>0.78241231820859003</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>650</v>
       </c>
@@ -12521,7 +12739,7 @@
         <v>0.77467988288329104</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>700</v>
       </c>
@@ -12541,7 +12759,7 @@
         <v>0.76701717673976</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>750</v>
       </c>
@@ -12561,7 +12779,7 @@
         <v>0.75999523576250405</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>800</v>
       </c>
@@ -12581,7 +12799,7 @@
         <v>0.75356570966609204</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>850</v>
       </c>
@@ -12601,7 +12819,7 @@
         <v>0.74758439708680602</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A23">
         <v>900</v>
       </c>
@@ -12621,7 +12839,7 @@
         <v>0.740490744778452</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A24">
         <v>950</v>
       </c>
@@ -12641,7 +12859,7 @@
         <v>0.73207641468829199</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A25">
         <v>1000</v>
       </c>
@@ -12675,12 +12893,12 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1025" width="8.875"/>
+    <col min="1" max="1025" width="8.87890625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -12688,7 +12906,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -12696,7 +12914,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -12716,7 +12934,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>100</v>
       </c>
@@ -12736,7 +12954,7 @@
         <v>0.565048501280497</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>150</v>
       </c>
@@ -12756,7 +12974,7 @@
         <v>0.52979819948389095</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>200</v>
       </c>
@@ -12776,7 +12994,7 @@
         <v>0.50263433614521402</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>250</v>
       </c>
@@ -12796,7 +13014,7 @@
         <v>0.47959082122888602</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>300</v>
       </c>
@@ -12816,7 +13034,7 @@
         <v>0.458612230460197</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>350</v>
       </c>
@@ -12836,7 +13054,7 @@
         <v>0.44094213080622402</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>400</v>
       </c>
@@ -12856,7 +13074,7 @@
         <v>0.42703850167148799</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>450</v>
       </c>
@@ -12876,7 +13094,7 @@
         <v>0.41399859731779698</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>500</v>
       </c>
@@ -12896,7 +13114,7 @@
         <v>0.40188879467078498</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>550</v>
       </c>
@@ -12916,7 +13134,7 @@
         <v>0.38752608646778203</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>600</v>
       </c>
@@ -12936,7 +13154,7 @@
         <v>0.37757128875703699</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>650</v>
       </c>
@@ -12956,7 +13174,7 @@
         <v>0.36833594605294001</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>700</v>
       </c>
@@ -12976,7 +13194,7 @@
         <v>0.360014087914451</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>750</v>
       </c>
@@ -12996,7 +13214,7 @@
         <v>0.35226882013410998</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>800</v>
       </c>
@@ -13016,7 +13234,7 @@
         <v>0.34549443325774098</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>850</v>
       </c>
@@ -13036,7 +13254,7 @@
         <v>0.33895338891929899</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>900</v>
       </c>
@@ -13056,7 +13274,7 @@
         <v>0.33179876275609899</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>950</v>
       </c>
@@ -13076,7 +13294,7 @@
         <v>0.32516143674734099</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A23">
         <v>1000</v>
       </c>
@@ -13110,15 +13328,15 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="6" width="8.875"/>
-    <col min="7" max="7" width="12.375"/>
-    <col min="8" max="8" width="12.125"/>
-    <col min="9" max="1025" width="8.875"/>
+    <col min="1" max="6" width="8.87890625"/>
+    <col min="7" max="7" width="12.3515625"/>
+    <col min="8" max="8" width="12.1171875"/>
+    <col min="9" max="1025" width="8.87890625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -13129,7 +13347,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -13143,7 +13361,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>100</v>
       </c>
@@ -13172,7 +13390,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>150</v>
       </c>
@@ -13210,7 +13428,7 @@
         <v>0.94983119874728095</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>200</v>
       </c>
@@ -13248,7 +13466,7 @@
         <v>0.94195944664053999</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>250</v>
       </c>
@@ -13286,7 +13504,7 @@
         <v>0.93660137844327596</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>300</v>
       </c>
@@ -13324,7 +13542,7 @@
         <v>0.93175902302691105</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>350</v>
       </c>
@@ -13362,7 +13580,7 @@
         <v>0.92608211195179402</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>400</v>
       </c>
@@ -13400,7 +13618,7 @@
         <v>0.92179213907892299</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>450</v>
       </c>
@@ -13438,7 +13656,7 @@
         <v>0.916811280978162</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>500</v>
       </c>
@@ -13476,7 +13694,7 @@
         <v>0.91316486951794096</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>550</v>
       </c>
@@ -13514,7 +13732,7 @@
         <v>0.90919147420940505</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>600</v>
       </c>
@@ -13552,7 +13770,7 @@
         <v>0.90567450417950301</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>650</v>
       </c>
@@ -13590,7 +13808,7 @@
         <v>0.90193234782756404</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>700</v>
       </c>
@@ -13628,7 +13846,7 @@
         <v>0.89936429639362003</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>750</v>
       </c>
@@ -13666,7 +13884,7 @@
         <v>0.89661717900507398</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>800</v>
       </c>
@@ -13704,7 +13922,7 @@
         <v>0.89397164676966201</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>850</v>
       </c>
@@ -13742,7 +13960,7 @@
         <v>0.89077688219236995</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>900</v>
       </c>
@@ -13780,7 +13998,7 @@
         <v>0.88779088041409904</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>950</v>
       </c>
@@ -13818,7 +14036,7 @@
         <v>0.88494525728298301</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>1000</v>
       </c>
@@ -13856,7 +14074,7 @@
         <v>0.88360231571674497</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.5">
       <c r="G22">
         <v>1000</v>
       </c>
@@ -13876,7 +14094,7 @@
         <v>0.88121435670759296</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.5">
       <c r="J23">
         <v>1050</v>
       </c>
@@ -13887,7 +14105,7 @@
         <v>0.87808291472227196</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.5">
       <c r="J24">
         <v>1100</v>
       </c>
@@ -13898,7 +14116,7 @@
         <v>0.87368551643484904</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.5">
       <c r="J25">
         <v>1150</v>
       </c>
@@ -13909,7 +14127,7 @@
         <v>0.87149977205282703</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.5">
       <c r="J26">
         <v>1200</v>
       </c>
@@ -13920,7 +14138,7 @@
         <v>0.87027133500588905</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.5">
       <c r="J27">
         <v>1250</v>
       </c>
@@ -13931,7 +14149,7 @@
         <v>0.86793002729702795</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.5">
       <c r="J28">
         <v>1300</v>
       </c>
@@ -13942,7 +14160,7 @@
         <v>0.86642663782167395</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.5">
       <c r="J29">
         <v>1350</v>
       </c>
@@ -13953,7 +14171,7 @@
         <v>0.86413010545034397</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.5">
       <c r="J30">
         <v>1400</v>
       </c>
@@ -13964,7 +14182,7 @@
         <v>0.86100553019662895</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.5">
       <c r="J31">
         <v>1450</v>
       </c>
@@ -13975,7 +14193,7 @@
         <v>0.85964503245061596</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.5">
       <c r="J32">
         <v>1500</v>
       </c>
@@ -13986,7 +14204,7 @@
         <v>0.85809835424972802</v>
       </c>
     </row>
-    <row r="33" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="10:12" x14ac:dyDescent="0.5">
       <c r="J33">
         <v>1550</v>
       </c>
@@ -13997,7 +14215,7 @@
         <v>0.85659000940105101</v>
       </c>
     </row>
-    <row r="34" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="10:12" x14ac:dyDescent="0.5">
       <c r="J34">
         <v>1600</v>
       </c>
@@ -14008,7 +14226,7 @@
         <v>0.84936914558037302</v>
       </c>
     </row>
-    <row r="35" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="10:12" x14ac:dyDescent="0.5">
       <c r="J35">
         <v>1650</v>
       </c>
@@ -14019,7 +14237,7 @@
         <v>0.84739662383336301</v>
       </c>
     </row>
-    <row r="36" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="10:12" x14ac:dyDescent="0.5">
       <c r="J36">
         <v>1700</v>
       </c>
@@ -14030,7 +14248,7 @@
         <v>0.84612642006841199</v>
       </c>
     </row>
-    <row r="37" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="10:12" x14ac:dyDescent="0.5">
       <c r="J37">
         <v>1750</v>
       </c>
@@ -14041,7 +14259,7 @@
         <v>0.84488308150598002</v>
       </c>
     </row>
-    <row r="38" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="10:12" x14ac:dyDescent="0.5">
       <c r="J38">
         <v>1800</v>
       </c>
@@ -14052,7 +14270,7 @@
         <v>0.84283693706958995</v>
       </c>
     </row>
-    <row r="39" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="10:12" x14ac:dyDescent="0.5">
       <c r="J39">
         <v>1850</v>
       </c>
@@ -14063,7 +14281,7 @@
         <v>0.84022846394753503</v>
       </c>
     </row>
-    <row r="40" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="10:12" x14ac:dyDescent="0.5">
       <c r="J40">
         <v>1900</v>
       </c>
@@ -14074,7 +14292,7 @@
         <v>0.83839394934758904</v>
       </c>
     </row>
-    <row r="41" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="10:12" x14ac:dyDescent="0.5">
       <c r="J41">
         <v>1950</v>
       </c>
@@ -14085,7 +14303,7 @@
         <v>0.83754052787468203</v>
       </c>
     </row>
-    <row r="42" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="10:12" x14ac:dyDescent="0.5">
       <c r="J42">
         <v>2000</v>
       </c>
@@ -14096,7 +14314,7 @@
         <v>0.83603441294400105</v>
       </c>
     </row>
-    <row r="43" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="10:12" x14ac:dyDescent="0.5">
       <c r="J43">
         <v>2050</v>
       </c>
@@ -14107,7 +14325,7 @@
         <v>0.83333716784840495</v>
       </c>
     </row>
-    <row r="44" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="10:12" x14ac:dyDescent="0.5">
       <c r="J44">
         <v>2100</v>
       </c>
@@ -14118,7 +14336,7 @@
         <v>0.82877553433082596</v>
       </c>
     </row>
-    <row r="45" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="10:12" x14ac:dyDescent="0.5">
       <c r="J45">
         <v>2150</v>
       </c>
@@ -14129,7 +14347,7 @@
         <v>0.82735911165730303</v>
       </c>
     </row>
-    <row r="46" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="10:12" x14ac:dyDescent="0.5">
       <c r="J46">
         <v>2200</v>
       </c>
@@ -14140,7 +14358,7 @@
         <v>0.82575618996919098</v>
       </c>
     </row>
-    <row r="47" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="10:12" x14ac:dyDescent="0.5">
       <c r="J47">
         <v>2250</v>
       </c>
@@ -14151,7 +14369,7 @@
         <v>0.82465974283028198</v>
       </c>
     </row>
-    <row r="48" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="10:12" x14ac:dyDescent="0.5">
       <c r="J48">
         <v>2300</v>
       </c>
@@ -14162,7 +14380,7 @@
         <v>0.823117701443004</v>
       </c>
     </row>
-    <row r="49" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="10:12" x14ac:dyDescent="0.5">
       <c r="J49">
         <v>2350</v>
       </c>
@@ -14173,7 +14391,7 @@
         <v>0.82052108582140204</v>
       </c>
     </row>
-    <row r="50" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="10:12" x14ac:dyDescent="0.5">
       <c r="J50">
         <v>2400</v>
       </c>
@@ -14184,7 +14402,7 @@
         <v>0.81886992003443204</v>
       </c>
     </row>
-    <row r="51" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="10:12" x14ac:dyDescent="0.5">
       <c r="J51">
         <v>2450</v>
       </c>
@@ -14195,7 +14413,7 @@
         <v>0.81804350534613901</v>
       </c>
     </row>
-    <row r="52" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="10:12" x14ac:dyDescent="0.5">
       <c r="J52">
         <v>2500</v>
       </c>
@@ -14206,7 +14424,7 @@
         <v>0.81631871686978896</v>
       </c>
     </row>
-    <row r="53" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="10:12" x14ac:dyDescent="0.5">
       <c r="J53">
         <v>2550</v>
       </c>
@@ -14217,7 +14435,7 @@
         <v>0.81505410559758895</v>
       </c>
     </row>
-    <row r="54" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="10:12" x14ac:dyDescent="0.5">
       <c r="J54">
         <v>2600</v>
       </c>
@@ -14228,7 +14446,7 @@
         <v>0.81185406708725905</v>
       </c>
     </row>
-    <row r="55" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="10:12" x14ac:dyDescent="0.5">
       <c r="J55">
         <v>2650</v>
       </c>
@@ -14239,7 +14457,7 @@
         <v>0.80859498884333003</v>
       </c>
     </row>
-    <row r="56" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="10:12" x14ac:dyDescent="0.5">
       <c r="J56">
         <v>2700</v>
       </c>
@@ -14250,7 +14468,7 @@
         <v>0.80739546993928901</v>
       </c>
     </row>
-    <row r="57" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="10:12" x14ac:dyDescent="0.5">
       <c r="J57">
         <v>2750</v>
       </c>
@@ -14261,7 +14479,7 @@
         <v>0.80635027551875604</v>
       </c>
     </row>
-    <row r="58" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="10:12" x14ac:dyDescent="0.5">
       <c r="J58">
         <v>2800</v>
       </c>
@@ -14272,7 +14490,7 @@
         <v>0.805939935212033</v>
       </c>
     </row>
-    <row r="59" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="10:12" x14ac:dyDescent="0.5">
       <c r="J59">
         <v>2850</v>
       </c>
@@ -14283,7 +14501,7 @@
         <v>0.80348458312567905</v>
       </c>
     </row>
-    <row r="60" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="10:12" x14ac:dyDescent="0.5">
       <c r="J60">
         <v>2900</v>
       </c>
@@ -14294,7 +14512,7 @@
         <v>0.80192940999909301</v>
       </c>
     </row>
-    <row r="61" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="10:12" x14ac:dyDescent="0.5">
       <c r="J61">
         <v>2950</v>
       </c>
@@ -14305,7 +14523,7 @@
         <v>0.80009227613039102</v>
       </c>
     </row>
-    <row r="62" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="10:12" x14ac:dyDescent="0.5">
       <c r="J62">
         <v>3000</v>
       </c>
@@ -14335,17 +14553,17 @@
       <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1025" width="11.375"/>
+    <col min="1" max="1025" width="11.3515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -14359,7 +14577,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>20</v>
       </c>
@@ -14403,7 +14621,7 @@
         <v>0.30826308571428501</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>30</v>
       </c>
@@ -14447,7 +14665,7 @@
         <v>0.21392602857142801</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>40</v>
       </c>
@@ -14491,7 +14709,7 @@
         <v>0.15466165714285701</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>50</v>
       </c>
@@ -14535,7 +14753,7 @@
         <v>0.113594314285714</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>60</v>
       </c>
@@ -14579,7 +14797,7 @@
         <v>8.51067428571428E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>70</v>
       </c>
@@ -14623,7 +14841,7 @@
         <v>6.3061942857142797E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>80</v>
       </c>
@@ -14667,7 +14885,7 @@
         <v>4.7774485714285699E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>90</v>
       </c>
@@ -14711,7 +14929,7 @@
         <v>3.6461E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>100</v>
       </c>
@@ -14769,13 +14987,13 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="12.125"/>
-    <col min="2" max="1025" width="11.375"/>
+    <col min="1" max="1" width="12.1171875"/>
+    <col min="2" max="1025" width="11.3515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -14783,7 +15001,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -14794,7 +15012,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>100</v>
       </c>
@@ -14805,7 +15023,7 @@
         <v>0.94983119874728095</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>150</v>
       </c>
@@ -14816,7 +15034,7 @@
         <v>0.94195944664053999</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>200</v>
       </c>
@@ -14827,7 +15045,7 @@
         <v>0.93660137844327596</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>250</v>
       </c>
@@ -14838,7 +15056,7 @@
         <v>0.93175902302691105</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>300</v>
       </c>
@@ -14849,7 +15067,7 @@
         <v>0.92608211195179402</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>350</v>
       </c>
@@ -14860,7 +15078,7 @@
         <v>0.92179213907892299</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>400</v>
       </c>
@@ -14871,7 +15089,7 @@
         <v>0.916811280978162</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>450</v>
       </c>
@@ -14882,7 +15100,7 @@
         <v>0.91316486951794096</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>500</v>
       </c>
@@ -14893,7 +15111,7 @@
         <v>0.90919147420940505</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>550</v>
       </c>
@@ -14904,7 +15122,7 @@
         <v>0.90567450417950301</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>600</v>
       </c>
@@ -14915,7 +15133,7 @@
         <v>0.90193234782756404</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>650</v>
       </c>
@@ -14926,7 +15144,7 @@
         <v>0.89936429639362003</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>700</v>
       </c>
@@ -14937,7 +15155,7 @@
         <v>0.89661717900507398</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>750</v>
       </c>
@@ -14948,7 +15166,7 @@
         <v>0.89397164676966201</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>800</v>
       </c>
@@ -14959,7 +15177,7 @@
         <v>0.89077688219236995</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>850</v>
       </c>
@@ -14970,7 +15188,7 @@
         <v>0.88779088041409904</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>900</v>
       </c>
@@ -14981,7 +15199,7 @@
         <v>0.88494525728298301</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>950</v>
       </c>
@@ -14992,7 +15210,7 @@
         <v>0.88360231571674497</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>1000</v>
       </c>
@@ -15003,7 +15221,7 @@
         <v>0.88121435670759296</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>1050</v>
       </c>
@@ -15014,7 +15232,7 @@
         <v>0.87808291472227196</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A23">
         <v>1100</v>
       </c>
@@ -15025,7 +15243,7 @@
         <v>0.87368551643484904</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A24">
         <v>1150</v>
       </c>
@@ -15036,7 +15254,7 @@
         <v>0.87149977205282703</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A25">
         <v>1200</v>
       </c>
@@ -15047,7 +15265,7 @@
         <v>0.87027133500588905</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A26">
         <v>1250</v>
       </c>
@@ -15058,7 +15276,7 @@
         <v>0.86793002729702795</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A27">
         <v>1300</v>
       </c>
@@ -15069,7 +15287,7 @@
         <v>0.86642663782167395</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A28">
         <v>1350</v>
       </c>
@@ -15080,7 +15298,7 @@
         <v>0.86413010545034397</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A29">
         <v>1400</v>
       </c>
@@ -15091,7 +15309,7 @@
         <v>0.86100553019662895</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A30">
         <v>1450</v>
       </c>
@@ -15102,7 +15320,7 @@
         <v>0.85964503245061596</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A31">
         <v>1500</v>
       </c>
@@ -15113,7 +15331,7 @@
         <v>0.85809835424972802</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -15133,22 +15351,22 @@
       <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1025" width="8.875"/>
+    <col min="1" max="1025" width="8.87890625"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.5">
       <c r="L6" t="s">
         <v>31</v>
       </c>
@@ -15156,7 +15374,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>100</v>
       </c>
@@ -15185,7 +15403,7 @@
         <v>0.69592418795941502</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>150</v>
       </c>
@@ -15214,7 +15432,7 @@
         <v>0.65271568071629604</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>200</v>
       </c>
@@ -15243,7 +15461,7 @@
         <v>0.63686787662261501</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>250</v>
       </c>
@@ -15272,7 +15490,7 @@
         <v>0.61240023606115102</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>300</v>
       </c>
@@ -15301,7 +15519,7 @@
         <v>0.60147336614404101</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>350</v>
       </c>
@@ -15330,7 +15548,7 @@
         <v>0.58701660614443196</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>400</v>
       </c>
@@ -15359,7 +15577,7 @@
         <v>0.57378890365968105</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>450</v>
       </c>
@@ -15388,7 +15606,7 @@
         <v>0.56033622829996899</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>500</v>
       </c>
@@ -15417,7 +15635,7 @@
         <v>0.55040375987253698</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>550</v>
       </c>
@@ -15446,7 +15664,7 @@
         <v>0.54166005850211096</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>600</v>
       </c>
@@ -15475,7 +15693,7 @@
         <v>0.53288807133640903</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>650</v>
       </c>
@@ -15504,7 +15722,7 @@
         <v>0.52626812612410101</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>700</v>
       </c>
@@ -15533,7 +15751,7 @@
         <v>0.51936620879926498</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>750</v>
       </c>
@@ -15562,7 +15780,7 @@
         <v>0.512802499169143</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>800</v>
       </c>
@@ -15591,7 +15809,7 @@
         <v>0.50624752575656895</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>850</v>
       </c>
@@ -15620,7 +15838,7 @@
         <v>0.50075540790193895</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A23">
         <v>900</v>
       </c>
@@ -15649,7 +15867,7 @@
         <v>0.49586633342782299</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A24">
         <v>950</v>
       </c>
@@ -15678,7 +15896,7 @@
         <v>0.49075314137277098</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A25">
         <v>1000</v>
       </c>
@@ -15707,7 +15925,7 @@
         <v>0.486052139945652</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A26">
         <v>1050</v>
       </c>
@@ -15727,7 +15945,7 @@
         <v>0.481286502727166</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A27">
         <v>1100</v>
       </c>
@@ -15747,7 +15965,7 @@
         <v>0.47577596550477003</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A28">
         <v>1150</v>
       </c>
@@ -15767,7 +15985,7 @@
         <v>0.47189787911518599</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A29">
         <v>1200</v>
       </c>
@@ -15787,7 +16005,7 @@
         <v>0.46789128479824799</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A30">
         <v>1250</v>
       </c>
@@ -15807,7 +16025,7 @@
         <v>0.46349724228769201</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A31">
         <v>1300</v>
       </c>
@@ -15827,7 +16045,7 @@
         <v>0.46032556767086302</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A32">
         <v>1350</v>
       </c>
@@ -15847,7 +16065,7 @@
         <v>0.45666438995542702</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A33">
         <v>1400</v>
       </c>
@@ -15867,7 +16085,7 @@
         <v>0.45358863045433201</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A34">
         <v>1450</v>
       </c>
@@ -15887,7 +16105,7 @@
         <v>0.44956254765209602</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A35">
         <v>1500</v>
       </c>
@@ -15907,7 +16125,7 @@
         <v>0.44565403723217101</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A36">
         <v>1550</v>
       </c>
@@ -15927,7 +16145,7 @@
         <v>0.44126909749374399</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A37">
         <v>1600</v>
       </c>
@@ -15947,7 +16165,7 @@
         <v>0.438021973725368</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A38">
         <v>1650</v>
       </c>
@@ -15967,7 +16185,7 @@
         <v>0.436085740782374</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A39">
         <v>1700</v>
       </c>
@@ -15987,7 +16205,7 @@
         <v>0.43233017526196399</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A40">
         <v>1750</v>
       </c>
@@ -16007,7 +16225,7 @@
         <v>0.42971880987058197</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A41">
         <v>1800</v>
       </c>
@@ -16027,7 +16245,7 @@
         <v>0.42575711848999098</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A42">
         <v>1850</v>
       </c>
@@ -16047,7 +16265,7 @@
         <v>0.42236386162808898</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A43">
         <v>1900</v>
       </c>
@@ -16067,7 +16285,7 @@
         <v>0.41953360205857099</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A44">
         <v>1950</v>
       </c>
@@ -16087,7 +16305,7 @@
         <v>0.41723967293556502</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A45">
         <v>2000</v>
       </c>
@@ -16107,7 +16325,7 @@
         <v>0.41428264657295899</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A46">
         <v>2050</v>
       </c>
@@ -16127,7 +16345,7 @@
         <v>0.41221335431654699</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A47">
         <v>2100</v>
       </c>
@@ -16147,7 +16365,7 @@
         <v>0.40876474771269899</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A48">
         <v>2150</v>
       </c>
@@ -16167,7 +16385,7 @@
         <v>0.40633412427666599</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A49">
         <v>2200</v>
       </c>
@@ -16187,7 +16405,7 @@
         <v>0.40415620967899601</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A50">
         <v>2250</v>
       </c>
@@ -16207,7 +16425,7 @@
         <v>0.40167918654207102</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A51">
         <v>2300</v>
       </c>
@@ -16227,7 +16445,7 @@
         <v>0.39984827694909297</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A52">
         <v>2350</v>
       </c>
@@ -16247,7 +16465,7 @@
         <v>0.39727549142751001</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A53">
         <v>2400</v>
       </c>
@@ -16267,7 +16485,7 @@
         <v>0.39473352703706599</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A54">
         <v>2450</v>
       </c>
@@ -16287,7 +16505,7 @@
         <v>0.39264798419416602</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A55">
         <v>2500</v>
       </c>
@@ -16307,7 +16525,7 @@
         <v>0.39053262824523</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A56">
         <v>2550</v>
       </c>
@@ -16327,7 +16545,7 @@
         <v>0.38815295589615301</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A57">
         <v>2600</v>
       </c>
@@ -16347,7 +16565,7 @@
         <v>0.38434124643220202</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A58">
         <v>2650</v>
       </c>
@@ -16367,7 +16585,7 @@
         <v>0.381528245474273</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A59">
         <v>2700</v>
       </c>
@@ -16387,7 +16605,7 @@
         <v>0.37996544001212101</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A60">
         <v>2750</v>
       </c>
@@ -16407,7 +16625,7 @@
         <v>0.37796896993274898</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A61">
         <v>2800</v>
       </c>
@@ -16427,7 +16645,7 @@
         <v>0.37548562372927802</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A62">
         <v>2850</v>
       </c>
@@ -16447,7 +16665,7 @@
         <v>0.373093549616828</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A63">
         <v>2900</v>
       </c>
@@ -16467,7 +16685,7 @@
         <v>0.37138073169182001</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A64">
         <v>2950</v>
       </c>
@@ -16487,7 +16705,7 @@
         <v>0.37021163639740401</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A65">
         <v>3000</v>
       </c>
@@ -16526,12 +16744,12 @@
       <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1025" width="9.125"/>
+    <col min="1" max="1025" width="9.1171875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -16539,7 +16757,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.5">
       <c r="J3" t="s">
         <v>33</v>
       </c>
@@ -16547,7 +16765,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>100</v>
       </c>
@@ -16597,7 +16815,7 @@
         <v>0.89558476236861195</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>150</v>
       </c>
@@ -16647,7 +16865,7 @@
         <v>0.88082436882701998</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>200</v>
       </c>
@@ -16697,7 +16915,7 @@
         <v>0.86643184096366399</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>250</v>
       </c>
@@ -16747,7 +16965,7 @@
         <v>0.85212079359595905</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>300</v>
       </c>
@@ -16797,7 +17015,7 @@
         <v>0.84363184974175398</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>350</v>
       </c>
@@ -16847,7 +17065,7 @@
         <v>0.83326789880844498</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>400</v>
       </c>
@@ -16897,7 +17115,7 @@
         <v>0.81340428484052196</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>450</v>
       </c>
@@ -16947,7 +17165,7 @@
         <v>0.81409644430726702</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>500</v>
       </c>
@@ -16997,7 +17215,7 @@
         <v>0.80136357715657802</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>550</v>
       </c>
@@ -17047,7 +17265,7 @@
         <v>0.79605916857330505</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>600</v>
       </c>
@@ -17097,7 +17315,7 @@
         <v>0.78949906838981498</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>650</v>
       </c>
@@ -17147,7 +17365,7 @@
         <v>0.78352271118385297</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>700</v>
       </c>
@@ -17197,7 +17415,7 @@
         <v>0.76065037151141701</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>750</v>
       </c>
@@ -17247,7 +17465,7 @@
         <v>0.76273375203878202</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>800</v>
       </c>
@@ -17297,7 +17515,7 @@
         <v>0.74909458250271799</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>850</v>
       </c>
@@ -17347,7 +17565,7 @@
         <v>0.75165208607058698</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>900</v>
       </c>
@@ -17397,7 +17615,7 @@
         <v>0.73974981027999298</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A23">
         <v>950</v>
       </c>
@@ -17447,7 +17665,7 @@
         <v>0.72927631020070705</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A24">
         <v>1000</v>
       </c>
